--- a/Example_scripts/Input example - from pressure grid.xlsx
+++ b/Example_scripts/Input example - from pressure grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365tno-my.sharepoint.com/personal/bart_davids_tno_nl/Documents/Documents/PySub/Example_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{70DE4E5C-224B-4531-87B6-7E834178536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718B725E-89D7-4E05-8C04-06E72F70DE93}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{70DE4E5C-224B-4531-87B6-7E834178536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E493A0E1-EEB8-4BDC-B2AC-F937A983C0B7}"/>
   <bookViews>
-    <workbookView xWindow="31830" yWindow="4665" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Model parameters" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Reference stress rate (Pa/year)</t>
-  </si>
-  <si>
     <t>Lower error (m)</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Model from grid\Een_thickness.tif</t>
+  </si>
+  <si>
+    <t>Reference stress rate (bar/year)</t>
   </si>
 </sst>
 </file>
@@ -540,18 +540,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -568,13 +568,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -624,24 +624,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A316F1A6-ED4E-4962-9A52-869AB762729B}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -661,19 +661,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
@@ -682,12 +682,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -699,7 +699,7 @@
         <v>3000</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1">
         <f>0.000012</f>
@@ -726,12 +726,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -743,7 +743,7 @@
         <v>2500</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G4" si="0">0.000012</f>
@@ -770,12 +770,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>6500</v>
@@ -787,7 +787,7 @@
         <v>2250</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -828,17 +828,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7091822E-7203-4A87-A3C6-3CE673FC987F}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -906,7 +906,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -983,7 +983,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1151,9 +1151,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>567600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1199,15 +1199,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1221,16 +1221,16 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1482,9 +1482,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
